--- a/frontend/upload/3С„.xlsx
+++ b/frontend/upload/3С„.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>ТП №6</t>
   </si>
@@ -358,6 +358,18 @@
   </si>
   <si>
     <t>номер</t>
+  </si>
+  <si>
+    <t>ghj</t>
+  </si>
+  <si>
+    <t>fdgh</t>
+  </si>
+  <si>
+    <t>dfgh</t>
+  </si>
+  <si>
+    <t>fgh</t>
   </si>
 </sst>
 </file>
@@ -715,7 +727,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,18 +740,45 @@
     <col min="12" max="12" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>110</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>107</v>
